--- a/biology/Botanique/Saburô_Ôishi/Saburô_Ôishi.xlsx
+++ b/biology/Botanique/Saburô_Ôishi/Saburô_Ôishi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sabur%C3%B4_%C3%94ishi</t>
+          <t>Saburô_Ôishi</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Saburô Ôishi (décédé en 1949) est un paléobotaniste japonais.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sabur%C3%B4_%C3%94ishi</t>
+          <t>Saburô_Ôishi</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>(en) S. Ôishi, The Rhaetie Plants from the Nariwa District, Okayama Pref., Japan, Journ. Fac, Sci., Hokkaido Imp. Univ., Série IV, vol. II, no 3-4, 1932.
 (en) S. Ôishi et Yamasita, On the Fossil Dipteridaceae, Journ. Fac. Sci., Hokkaido Imp. Univ., Série IV, Vol. III, no 2, 1936.
